--- a/biology/Médecine/Jef_Valkeniers/Jef_Valkeniers.xlsx
+++ b/biology/Médecine/Jef_Valkeniers/Jef_Valkeniers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Jozef Maria Zacharias (dit Jef) Valkeniers, né le 29 décembre 1932 à Schepdael, est un médecin-neuropsychiatre et un homme politique belge flamand.
@@ -512,7 +524,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Valkeniers fut parlementaire de 1974 à 2003. 
 En 1988, il fut brièvement secrétaire d'État, adjoint au ministre de la région bruxelloise. 
@@ -548,7 +562,9 @@
           <t>Carrière politique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1971 - 1976 : bourgmestre de Schepdael
 1974 - 1985 : député belge
@@ -583,7 +599,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve"> Belgique: Chevalier de la Ordre de la Couronne (1971).
  Afrique du Sud: Sieradres de Franschhoek (1999).
